--- a/Assets/CSV/お試し.xlsx
+++ b/Assets/CSV/お試し.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muror\Desktop\創作\Variety\Unity_Tools\ClusterCreatorKitSample-master\Assets\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muror\Desktop\創作\Graduation\Graduation\Assets\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA36AD0-763B-4223-BA36-9E004A90907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F60F7E0-38A8-425B-91F4-D57DA6536744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3290" yWindow="14290" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="7">
   <si>
     <t>[TIME]</t>
     <phoneticPr fontId="1"/>
@@ -47,7 +58,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(0:0.5:0)</t>
+    <t>(0:1.2:0)</t>
+  </si>
+  <si>
+    <t>(0:1.2:0)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -91,8 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -373,15 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,20 +411,1750 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>3</v>
+        <f>G2*H2</f>
+        <v>2.5263157894736841</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <f>60/190/4</f>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">G3*H3</f>
+        <v>3.1578947368421053</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="1">60/190/4</f>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3.7894736842105261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4.4210526315789469</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5.0526315789473681</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5.3684210526315788</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5.6842105263157894</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>6.6315789473684204</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>6.947368421052631</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>7.2631578947368416</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>7.5789473684210522</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>8.2105263157894726</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>8.8421052631578938</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>9.1578947368421044</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>9.473684210526315</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>10.105263157894736</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>10.736842105263158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>11.368421052631579</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>11.684210526315789</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>12.315789473684211</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>12.631578947368421</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>12.94736842105263</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>13.263157894736841</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>13.894736842105262</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>14.210526315789473</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>14.526315789473683</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>15.157894736842104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>15.473684210526315</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>15.789473684210526</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>16.421052631578945</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>16.736842105263158</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>17.052631578947366</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>17.684210526315788</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>18.315789473684209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>18.631578947368421</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>18.94736842105263</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>19.263157894736842</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>19.578947368421051</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>20.210526315789473</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>20.526315789473681</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>20.842105263157894</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>21.157894736842103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>21.473684210526315</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>21.789473684210524</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>22.105263157894736</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>22.263157894736842</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>22.421052631578945</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>22.736842105263158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H53" s="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>23.052631578947366</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>52</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H54" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>23.368421052631579</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H55" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H56" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>24.315789473684209</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H57" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>24.631578947368421</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>25.263157894736842</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>25.578947368421051</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>58</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H60" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>25.89473684210526</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>26.210526315789473</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H62" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>26.526315789473681</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>61</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H63" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>26.842105263157894</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H64" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>27.157894736842103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>63</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H65" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>27.789473684210524</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>64</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <f t="shared" ref="A67:A80" si="2">G67*H67</f>
+        <v>28.105263157894736</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>65</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G80" si="3">60/190/4</f>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H67" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>28.421052631578945</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>66</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H68" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>28.736842105263158</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H69" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>29.052631578947366</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>68</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H70" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>29.368421052631579</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H71" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>29.684210526315788</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>70</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>30.315789473684209</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>71</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H73" s="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>30.473684210526315</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>72</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H74" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>30.631578947368418</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>73</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H75" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>30.789473684210524</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>74</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H76" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>30.94736842105263</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H77" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>31.105263157894736</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>76</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H78" s="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>31.263157894736839</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>77</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H79" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>32.526315789473685</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>78</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="3"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="H80" s="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/CSV/お試し.xlsx
+++ b/Assets/CSV/お試し.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muror\Desktop\創作\Graduation\Graduation\Assets\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\Graduation2\Graduation\Assets\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F60F7E0-38A8-425B-91F4-D57DA6536744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAAF211-7529-4E09-978F-EE97EEEEBB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="13">
   <si>
     <t>[TIME]</t>
     <phoneticPr fontId="1"/>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>(0:1.2:0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -575,7 +599,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -597,7 +621,7 @@
         <v>6.3157894736842106</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -619,7 +643,7 @@
         <v>6.6315789473684204</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -641,7 +665,7 @@
         <v>6.947368421052631</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -663,7 +687,7 @@
         <v>7.2631578947368416</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -685,7 +709,7 @@
         <v>7.5789473684210522</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -707,7 +731,7 @@
         <v>8.2105263157894726</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -729,7 +753,7 @@
         <v>8.8421052631578938</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -751,7 +775,7 @@
         <v>9.1578947368421044</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -773,7 +797,7 @@
         <v>9.473684210526315</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -795,7 +819,7 @@
         <v>10.105263157894736</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -817,7 +841,7 @@
         <v>10.736842105263158</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -839,7 +863,7 @@
         <v>11.368421052631579</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -861,7 +885,7 @@
         <v>11.684210526315789</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -883,7 +907,7 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -905,7 +929,7 @@
         <v>12.315789473684211</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -927,7 +951,7 @@
         <v>12.631578947368421</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -949,7 +973,7 @@
         <v>12.94736842105263</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -971,7 +995,7 @@
         <v>13.263157894736841</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -993,7 +1017,7 @@
         <v>13.894736842105262</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1015,7 +1039,7 @@
         <v>14.210526315789473</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1037,7 +1061,7 @@
         <v>14.526315789473683</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1059,7 +1083,7 @@
         <v>15.157894736842104</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1081,7 +1105,7 @@
         <v>15.473684210526315</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1103,7 +1127,7 @@
         <v>15.789473684210526</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1125,7 +1149,7 @@
         <v>16.421052631578945</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1147,7 +1171,7 @@
         <v>16.736842105263158</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1169,7 +1193,7 @@
         <v>17.052631578947366</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1191,7 +1215,7 @@
         <v>17.684210526315788</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1213,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1235,7 +1259,7 @@
         <v>18.315789473684209</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1257,7 +1281,7 @@
         <v>18.631578947368421</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1279,7 +1303,7 @@
         <v>18.94736842105263</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1301,7 +1325,7 @@
         <v>19.263157894736842</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1323,7 +1347,7 @@
         <v>19.578947368421051</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1345,7 +1369,7 @@
         <v>20.210526315789473</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1367,7 +1391,7 @@
         <v>20.526315789473681</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1389,7 +1413,7 @@
         <v>20.842105263157894</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1411,7 +1435,7 @@
         <v>21.157894736842103</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1433,7 +1457,7 @@
         <v>21.473684210526315</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1455,7 +1479,7 @@
         <v>21.789473684210524</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1477,7 +1501,7 @@
         <v>22.105263157894736</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1499,7 +1523,7 @@
         <v>22.263157894736842</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1521,7 +1545,7 @@
         <v>22.421052631578945</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1543,7 +1567,7 @@
         <v>22.736842105263158</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1565,7 +1589,7 @@
         <v>23.052631578947366</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1587,7 +1611,7 @@
         <v>23.368421052631579</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1609,7 +1633,7 @@
         <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -1631,7 +1655,7 @@
         <v>24.315789473684209</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1653,7 +1677,7 @@
         <v>24.631578947368421</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1675,7 +1699,7 @@
         <v>25.263157894736842</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1697,7 +1721,7 @@
         <v>25.578947368421051</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1719,7 +1743,7 @@
         <v>25.89473684210526</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1741,7 +1765,7 @@
         <v>26.210526315789473</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1763,7 +1787,7 @@
         <v>26.526315789473681</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -1785,7 +1809,7 @@
         <v>26.842105263157894</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -1807,7 +1831,7 @@
         <v>27.157894736842103</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -1829,7 +1853,7 @@
         <v>27.789473684210524</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1847,11 +1871,11 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <f t="shared" ref="A67:A80" si="2">G67*H67</f>
+        <f t="shared" ref="A67:A87" si="2">G67*H67</f>
         <v>28.105263157894736</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2153,8 +2177,27 @@
         <v>412</v>
       </c>
     </row>
-    <row r="81" spans="6:6">
+    <row r="81" spans="6:8">
       <c r="F81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="6:8">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="6:8">
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="6:8">
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="6:8">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="6:8">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="6:8">
+      <c r="H87" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/CSV/お試し.xlsx
+++ b/Assets/CSV/お試し.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\Graduation2\Graduation\Assets\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAAF211-7529-4E09-978F-EE97EEEEBB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FBA289-1F00-4A9F-B238-F01FDDD50526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <f t="shared" ref="A67:A87" si="2">G67*H67</f>
+        <f t="shared" ref="A67:A80" si="2">G67*H67</f>
         <v>28.105263157894736</v>
       </c>
       <c r="B67" t="s">

--- a/Assets/CSV/お試し.xlsx
+++ b/Assets/CSV/お試し.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\Graduation2\Graduation\Assets\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Graduation\Grad\Graduation\Assets\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FBA289-1F00-4A9F-B238-F01FDDD50526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFC0701-93F0-4435-AFEC-03C8F8715350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -441,8 +441,8 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <f>G2*H2</f>
-        <v>2.5263157894736841</v>
+        <f>G2*H2+F2*2.7</f>
+        <v>2.7963157894736841</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -453,6 +453,9 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
       <c r="G2">
         <f>60/190/4</f>
         <v>7.8947368421052627E-2</v>
@@ -463,8 +466,8 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">G3*H3</f>
-        <v>3.1578947368421053</v>
+        <f t="shared" ref="A3:A66" si="0">G3*H3+F3*2.7</f>
+        <v>3.4278947368421053</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -475,6 +478,9 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="1">60/190/4</f>
         <v>7.8947368421052627E-2</v>
@@ -486,7 +492,7 @@
     <row r="4" spans="1:8">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>3.7894736842105261</v>
+        <v>4.0594736842105261</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -497,6 +503,9 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
       <c r="G4">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -508,7 +517,7 @@
     <row r="5" spans="1:8">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>4.4210526315789469</v>
+        <v>4.6910526315789465</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -519,6 +528,9 @@
       <c r="D5">
         <v>3</v>
       </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
       <c r="G5">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -530,7 +542,7 @@
     <row r="6" spans="1:8">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>5.0526315789473681</v>
+        <v>5.3226315789473677</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -541,6 +553,9 @@
       <c r="D6">
         <v>4</v>
       </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
       <c r="G6">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -552,7 +567,7 @@
     <row r="7" spans="1:8">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>5.3684210526315788</v>
+        <v>5.6384210526315783</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -563,6 +578,9 @@
       <c r="D7">
         <v>5</v>
       </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
       <c r="G7">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -574,7 +592,7 @@
     <row r="8" spans="1:8">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>5.6842105263157894</v>
+        <v>5.954210526315789</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -585,6 +603,9 @@
       <c r="D8">
         <v>6</v>
       </c>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
       <c r="G8">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -596,7 +617,7 @@
     <row r="9" spans="1:8">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>6.27</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -607,6 +628,9 @@
       <c r="D9">
         <v>7</v>
       </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
       <c r="G9">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -618,7 +642,7 @@
     <row r="10" spans="1:8">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>6.3157894736842106</v>
+        <v>6.5857894736842102</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -629,6 +653,9 @@
       <c r="D10">
         <v>8</v>
       </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
       <c r="G10">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -640,7 +667,7 @@
     <row r="11" spans="1:8">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>6.6315789473684204</v>
+        <v>6.9015789473684208</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -651,6 +678,9 @@
       <c r="D11">
         <v>9</v>
       </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
       <c r="G11">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -662,7 +692,7 @@
     <row r="12" spans="1:8">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>6.947368421052631</v>
+        <v>7.2173684210526314</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -673,6 +703,9 @@
       <c r="D12">
         <v>10</v>
       </c>
+      <c r="F12">
+        <v>0.1</v>
+      </c>
       <c r="G12">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -684,7 +717,7 @@
     <row r="13" spans="1:8">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>7.2631578947368416</v>
+        <v>7.5331578947368421</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -695,6 +728,9 @@
       <c r="D13">
         <v>11</v>
       </c>
+      <c r="F13">
+        <v>0.1</v>
+      </c>
       <c r="G13">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -706,7 +742,7 @@
     <row r="14" spans="1:8">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>7.5789473684210522</v>
+        <v>7.8489473684210527</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -717,6 +753,9 @@
       <c r="D14">
         <v>12</v>
       </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
       <c r="G14">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -728,7 +767,7 @@
     <row r="15" spans="1:8">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>8.2105263157894726</v>
+        <v>8.4805263157894721</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -739,6 +778,9 @@
       <c r="D15">
         <v>13</v>
       </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
       <c r="G15">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -750,7 +792,7 @@
     <row r="16" spans="1:8">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>8.8421052631578938</v>
+        <v>9.1121052631578934</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -761,6 +803,9 @@
       <c r="D16">
         <v>14</v>
       </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
       <c r="G16">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -772,7 +817,7 @@
     <row r="17" spans="1:8">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>9.1578947368421044</v>
+        <v>9.427894736842104</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -783,6 +828,9 @@
       <c r="D17">
         <v>15</v>
       </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
       <c r="G17">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -794,7 +842,7 @@
     <row r="18" spans="1:8">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>9.473684210526315</v>
+        <v>9.7436842105263146</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -805,6 +853,9 @@
       <c r="D18">
         <v>16</v>
       </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
       <c r="G18">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -816,7 +867,7 @@
     <row r="19" spans="1:8">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>10.105263157894736</v>
+        <v>10.375263157894736</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -827,6 +878,9 @@
       <c r="D19">
         <v>17</v>
       </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
       <c r="G19">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -838,7 +892,7 @@
     <row r="20" spans="1:8">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>10.736842105263158</v>
+        <v>11.006842105263157</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -849,6 +903,9 @@
       <c r="D20">
         <v>18</v>
       </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
       <c r="G20">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -860,7 +917,7 @@
     <row r="21" spans="1:8">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>11.368421052631579</v>
+        <v>11.638421052631578</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -871,6 +928,9 @@
       <c r="D21">
         <v>19</v>
       </c>
+      <c r="F21">
+        <v>0.1</v>
+      </c>
       <c r="G21">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -882,7 +942,7 @@
     <row r="22" spans="1:8">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>11.684210526315789</v>
+        <v>11.954210526315789</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -893,6 +953,9 @@
       <c r="D22">
         <v>20</v>
       </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
       <c r="G22">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -904,7 +967,7 @@
     <row r="23" spans="1:8">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>12.27</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -915,6 +978,9 @@
       <c r="D23">
         <v>21</v>
       </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
       <c r="G23">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -926,7 +992,7 @@
     <row r="24" spans="1:8">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>12.315789473684211</v>
+        <v>12.58578947368421</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -937,6 +1003,9 @@
       <c r="D24">
         <v>22</v>
       </c>
+      <c r="F24">
+        <v>0.1</v>
+      </c>
       <c r="G24">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -948,7 +1017,7 @@
     <row r="25" spans="1:8">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>12.631578947368421</v>
+        <v>12.901578947368421</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -959,6 +1028,9 @@
       <c r="D25">
         <v>23</v>
       </c>
+      <c r="F25">
+        <v>0.1</v>
+      </c>
       <c r="G25">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -970,7 +1042,7 @@
     <row r="26" spans="1:8">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>12.94736842105263</v>
+        <v>13.21736842105263</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -981,6 +1053,9 @@
       <c r="D26">
         <v>24</v>
       </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
       <c r="G26">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -992,7 +1067,7 @@
     <row r="27" spans="1:8">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>13.263157894736841</v>
+        <v>13.53315789473684</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1003,6 +1078,9 @@
       <c r="D27">
         <v>25</v>
       </c>
+      <c r="F27">
+        <v>0.1</v>
+      </c>
       <c r="G27">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1014,7 +1092,7 @@
     <row r="28" spans="1:8">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>13.894736842105262</v>
+        <v>14.164736842105262</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1025,6 +1103,9 @@
       <c r="D28">
         <v>26</v>
       </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
       <c r="G28">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1036,7 +1117,7 @@
     <row r="29" spans="1:8">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>14.210526315789473</v>
+        <v>14.480526315789472</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1047,6 +1128,9 @@
       <c r="D29">
         <v>27</v>
       </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
       <c r="G29">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1058,7 +1142,7 @@
     <row r="30" spans="1:8">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>14.526315789473683</v>
+        <v>14.796315789473683</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1069,6 +1153,9 @@
       <c r="D30">
         <v>28</v>
       </c>
+      <c r="F30">
+        <v>0.1</v>
+      </c>
       <c r="G30">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1080,7 +1167,7 @@
     <row r="31" spans="1:8">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>15.157894736842104</v>
+        <v>15.427894736842104</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -1091,6 +1178,9 @@
       <c r="D31">
         <v>29</v>
       </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
       <c r="G31">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1102,7 +1192,7 @@
     <row r="32" spans="1:8">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>15.473684210526315</v>
+        <v>15.743684210526315</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
@@ -1113,6 +1203,9 @@
       <c r="D32">
         <v>30</v>
       </c>
+      <c r="F32">
+        <v>0.1</v>
+      </c>
       <c r="G32">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1124,7 +1217,7 @@
     <row r="33" spans="1:8">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>15.789473684210526</v>
+        <v>16.059473684210527</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1135,6 +1228,9 @@
       <c r="D33">
         <v>31</v>
       </c>
+      <c r="F33">
+        <v>0.1</v>
+      </c>
       <c r="G33">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1146,7 +1242,7 @@
     <row r="34" spans="1:8">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>16.421052631578945</v>
+        <v>16.691052631578945</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -1157,6 +1253,9 @@
       <c r="D34">
         <v>32</v>
       </c>
+      <c r="F34">
+        <v>0.1</v>
+      </c>
       <c r="G34">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1168,7 +1267,7 @@
     <row r="35" spans="1:8">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>16.736842105263158</v>
+        <v>17.006842105263157</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -1179,6 +1278,9 @@
       <c r="D35">
         <v>33</v>
       </c>
+      <c r="F35">
+        <v>0.1</v>
+      </c>
       <c r="G35">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1190,7 +1292,7 @@
     <row r="36" spans="1:8">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>17.052631578947366</v>
+        <v>17.322631578947366</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -1201,6 +1303,9 @@
       <c r="D36">
         <v>34</v>
       </c>
+      <c r="F36">
+        <v>0.1</v>
+      </c>
       <c r="G36">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1212,7 +1317,7 @@
     <row r="37" spans="1:8">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>17.684210526315788</v>
+        <v>17.954210526315787</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -1223,6 +1328,9 @@
       <c r="D37">
         <v>35</v>
       </c>
+      <c r="F37">
+        <v>0.1</v>
+      </c>
       <c r="G37">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1234,7 +1342,7 @@
     <row r="38" spans="1:8">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>18.27</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -1245,6 +1353,9 @@
       <c r="D38">
         <v>36</v>
       </c>
+      <c r="F38">
+        <v>0.1</v>
+      </c>
       <c r="G38">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1256,7 +1367,7 @@
     <row r="39" spans="1:8">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>18.315789473684209</v>
+        <v>18.585789473684208</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1267,6 +1378,9 @@
       <c r="D39">
         <v>37</v>
       </c>
+      <c r="F39">
+        <v>0.1</v>
+      </c>
       <c r="G39">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1278,7 +1392,7 @@
     <row r="40" spans="1:8">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>18.631578947368421</v>
+        <v>18.901578947368421</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1289,6 +1403,9 @@
       <c r="D40">
         <v>38</v>
       </c>
+      <c r="F40">
+        <v>0.1</v>
+      </c>
       <c r="G40">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1300,7 +1417,7 @@
     <row r="41" spans="1:8">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>18.94736842105263</v>
+        <v>19.21736842105263</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1311,6 +1428,9 @@
       <c r="D41">
         <v>39</v>
       </c>
+      <c r="F41">
+        <v>0.1</v>
+      </c>
       <c r="G41">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1322,7 +1442,7 @@
     <row r="42" spans="1:8">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>19.263157894736842</v>
+        <v>19.533157894736842</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1333,6 +1453,9 @@
       <c r="D42">
         <v>40</v>
       </c>
+      <c r="F42">
+        <v>0.1</v>
+      </c>
       <c r="G42">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1344,7 +1467,7 @@
     <row r="43" spans="1:8">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>19.578947368421051</v>
+        <v>19.848947368421051</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -1355,6 +1478,9 @@
       <c r="D43">
         <v>41</v>
       </c>
+      <c r="F43">
+        <v>0.1</v>
+      </c>
       <c r="G43">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1366,7 +1492,7 @@
     <row r="44" spans="1:8">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>20.210526315789473</v>
+        <v>20.480526315789472</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -1377,6 +1503,9 @@
       <c r="D44">
         <v>42</v>
       </c>
+      <c r="F44">
+        <v>0.1</v>
+      </c>
       <c r="G44">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1388,7 +1517,7 @@
     <row r="45" spans="1:8">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>20.526315789473681</v>
+        <v>20.796315789473681</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -1399,6 +1528,9 @@
       <c r="D45">
         <v>43</v>
       </c>
+      <c r="F45">
+        <v>0.1</v>
+      </c>
       <c r="G45">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1410,7 +1542,7 @@
     <row r="46" spans="1:8">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>20.842105263157894</v>
+        <v>21.112105263157893</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -1421,6 +1553,9 @@
       <c r="D46">
         <v>44</v>
       </c>
+      <c r="F46">
+        <v>0.1</v>
+      </c>
       <c r="G46">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1432,7 +1567,7 @@
     <row r="47" spans="1:8">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>21.157894736842103</v>
+        <v>21.427894736842102</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -1443,6 +1578,9 @@
       <c r="D47">
         <v>45</v>
       </c>
+      <c r="F47">
+        <v>0.1</v>
+      </c>
       <c r="G47">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1454,7 +1592,7 @@
     <row r="48" spans="1:8">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>21.473684210526315</v>
+        <v>21.743684210526315</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
@@ -1465,6 +1603,9 @@
       <c r="D48">
         <v>46</v>
       </c>
+      <c r="F48">
+        <v>0.1</v>
+      </c>
       <c r="G48">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1476,7 +1617,7 @@
     <row r="49" spans="1:8">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>21.789473684210524</v>
+        <v>22.059473684210523</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -1487,6 +1628,9 @@
       <c r="D49">
         <v>47</v>
       </c>
+      <c r="F49">
+        <v>0.1</v>
+      </c>
       <c r="G49">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1498,7 +1642,7 @@
     <row r="50" spans="1:8">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>22.105263157894736</v>
+        <v>22.375263157894736</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
@@ -1509,6 +1653,9 @@
       <c r="D50">
         <v>48</v>
       </c>
+      <c r="F50">
+        <v>0.1</v>
+      </c>
       <c r="G50">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1520,7 +1667,7 @@
     <row r="51" spans="1:8">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>22.263157894736842</v>
+        <v>22.533157894736842</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
@@ -1531,6 +1678,9 @@
       <c r="D51">
         <v>49</v>
       </c>
+      <c r="F51">
+        <v>0.1</v>
+      </c>
       <c r="G51">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1542,7 +1692,7 @@
     <row r="52" spans="1:8">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>22.421052631578945</v>
+        <v>22.691052631578945</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
@@ -1553,6 +1703,9 @@
       <c r="D52">
         <v>50</v>
       </c>
+      <c r="F52">
+        <v>0.1</v>
+      </c>
       <c r="G52">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1564,7 +1717,7 @@
     <row r="53" spans="1:8">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>22.736842105263158</v>
+        <v>23.006842105263157</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -1575,6 +1728,9 @@
       <c r="D53">
         <v>51</v>
       </c>
+      <c r="F53">
+        <v>0.1</v>
+      </c>
       <c r="G53">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1586,7 +1742,7 @@
     <row r="54" spans="1:8">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>23.052631578947366</v>
+        <v>23.322631578947366</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -1597,6 +1753,9 @@
       <c r="D54">
         <v>52</v>
       </c>
+      <c r="F54">
+        <v>0.1</v>
+      </c>
       <c r="G54">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1608,7 +1767,7 @@
     <row r="55" spans="1:8">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>23.368421052631579</v>
+        <v>23.638421052631578</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -1619,6 +1778,9 @@
       <c r="D55">
         <v>53</v>
       </c>
+      <c r="F55">
+        <v>0.1</v>
+      </c>
       <c r="G55">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1630,7 +1792,7 @@
     <row r="56" spans="1:8">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>24.27</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -1641,6 +1803,9 @@
       <c r="D56">
         <v>54</v>
       </c>
+      <c r="F56">
+        <v>0.1</v>
+      </c>
       <c r="G56">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1652,7 +1817,7 @@
     <row r="57" spans="1:8">
       <c r="A57">
         <f t="shared" si="0"/>
-        <v>24.315789473684209</v>
+        <v>24.585789473684208</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -1663,6 +1828,9 @@
       <c r="D57">
         <v>55</v>
       </c>
+      <c r="F57">
+        <v>0.1</v>
+      </c>
       <c r="G57">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1674,7 +1842,7 @@
     <row r="58" spans="1:8">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>24.631578947368421</v>
+        <v>24.901578947368421</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -1685,6 +1853,9 @@
       <c r="D58">
         <v>56</v>
       </c>
+      <c r="F58">
+        <v>0.1</v>
+      </c>
       <c r="G58">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1696,7 +1867,7 @@
     <row r="59" spans="1:8">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>25.263157894736842</v>
+        <v>25.533157894736842</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
@@ -1707,6 +1878,9 @@
       <c r="D59">
         <v>57</v>
       </c>
+      <c r="F59">
+        <v>0.1</v>
+      </c>
       <c r="G59">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1718,7 +1892,7 @@
     <row r="60" spans="1:8">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>25.578947368421051</v>
+        <v>25.848947368421051</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -1729,6 +1903,9 @@
       <c r="D60">
         <v>58</v>
       </c>
+      <c r="F60">
+        <v>0.1</v>
+      </c>
       <c r="G60">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1740,7 +1917,7 @@
     <row r="61" spans="1:8">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>25.89473684210526</v>
+        <v>26.16473684210526</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -1751,6 +1928,9 @@
       <c r="D61">
         <v>59</v>
       </c>
+      <c r="F61">
+        <v>0.1</v>
+      </c>
       <c r="G61">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1762,7 +1942,7 @@
     <row r="62" spans="1:8">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>26.210526315789473</v>
+        <v>26.480526315789472</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -1773,6 +1953,9 @@
       <c r="D62">
         <v>60</v>
       </c>
+      <c r="F62">
+        <v>0.1</v>
+      </c>
       <c r="G62">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1784,7 +1967,7 @@
     <row r="63" spans="1:8">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>26.526315789473681</v>
+        <v>26.796315789473681</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -1795,6 +1978,9 @@
       <c r="D63">
         <v>61</v>
       </c>
+      <c r="F63">
+        <v>0.1</v>
+      </c>
       <c r="G63">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1806,7 +1992,7 @@
     <row r="64" spans="1:8">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>26.842105263157894</v>
+        <v>27.112105263157893</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -1817,6 +2003,9 @@
       <c r="D64">
         <v>62</v>
       </c>
+      <c r="F64">
+        <v>0.1</v>
+      </c>
       <c r="G64">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1828,7 +2017,7 @@
     <row r="65" spans="1:8">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>27.157894736842103</v>
+        <v>27.427894736842102</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -1839,6 +2028,9 @@
       <c r="D65">
         <v>63</v>
       </c>
+      <c r="F65">
+        <v>0.1</v>
+      </c>
       <c r="G65">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1850,7 +2042,7 @@
     <row r="66" spans="1:8">
       <c r="A66">
         <f t="shared" si="0"/>
-        <v>27.789473684210524</v>
+        <v>28.059473684210523</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -1861,6 +2053,9 @@
       <c r="D66">
         <v>64</v>
       </c>
+      <c r="F66">
+        <v>0.1</v>
+      </c>
       <c r="G66">
         <f t="shared" si="1"/>
         <v>7.8947368421052627E-2</v>
@@ -1871,8 +2066,8 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <f t="shared" ref="A67:A80" si="2">G67*H67</f>
-        <v>28.105263157894736</v>
+        <f t="shared" ref="A67:A80" si="2">G67*H67+F67*2.7</f>
+        <v>28.375263157894736</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -1882,6 +2077,9 @@
       </c>
       <c r="D67">
         <v>65</v>
+      </c>
+      <c r="F67">
+        <v>0.1</v>
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G80" si="3">60/190/4</f>
@@ -1894,7 +2092,7 @@
     <row r="68" spans="1:8">
       <c r="A68">
         <f t="shared" si="2"/>
-        <v>28.421052631578945</v>
+        <v>28.691052631578945</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
@@ -1904,6 +2102,9 @@
       </c>
       <c r="D68">
         <v>66</v>
+      </c>
+      <c r="F68">
+        <v>0.1</v>
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
@@ -1916,7 +2117,7 @@
     <row r="69" spans="1:8">
       <c r="A69">
         <f t="shared" si="2"/>
-        <v>28.736842105263158</v>
+        <v>29.006842105263157</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -1926,6 +2127,9 @@
       </c>
       <c r="D69">
         <v>67</v>
+      </c>
+      <c r="F69">
+        <v>0.1</v>
       </c>
       <c r="G69">
         <f t="shared" si="3"/>
@@ -1938,7 +2142,7 @@
     <row r="70" spans="1:8">
       <c r="A70">
         <f t="shared" si="2"/>
-        <v>29.052631578947366</v>
+        <v>29.322631578947366</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
@@ -1948,6 +2152,9 @@
       </c>
       <c r="D70">
         <v>68</v>
+      </c>
+      <c r="F70">
+        <v>0.1</v>
       </c>
       <c r="G70">
         <f t="shared" si="3"/>
@@ -1960,7 +2167,7 @@
     <row r="71" spans="1:8">
       <c r="A71">
         <f t="shared" si="2"/>
-        <v>29.368421052631579</v>
+        <v>29.638421052631578</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
@@ -1970,6 +2177,9 @@
       </c>
       <c r="D71">
         <v>69</v>
+      </c>
+      <c r="F71">
+        <v>0.1</v>
       </c>
       <c r="G71">
         <f t="shared" si="3"/>
@@ -1982,7 +2192,7 @@
     <row r="72" spans="1:8">
       <c r="A72">
         <f t="shared" si="2"/>
-        <v>29.684210526315788</v>
+        <v>29.954210526315787</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -1992,6 +2202,9 @@
       </c>
       <c r="D72">
         <v>70</v>
+      </c>
+      <c r="F72">
+        <v>0.1</v>
       </c>
       <c r="G72">
         <f t="shared" si="3"/>
@@ -2004,7 +2217,7 @@
     <row r="73" spans="1:8">
       <c r="A73">
         <f t="shared" si="2"/>
-        <v>30.315789473684209</v>
+        <v>30.585789473684208</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -2014,6 +2227,9 @@
       </c>
       <c r="D73">
         <v>71</v>
+      </c>
+      <c r="F73">
+        <v>0.1</v>
       </c>
       <c r="G73">
         <f t="shared" si="3"/>
@@ -2026,7 +2242,7 @@
     <row r="74" spans="1:8">
       <c r="A74">
         <f t="shared" si="2"/>
-        <v>30.473684210526315</v>
+        <v>30.743684210526315</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -2036,6 +2252,9 @@
       </c>
       <c r="D74">
         <v>72</v>
+      </c>
+      <c r="F74">
+        <v>0.1</v>
       </c>
       <c r="G74">
         <f t="shared" si="3"/>
@@ -2048,7 +2267,7 @@
     <row r="75" spans="1:8">
       <c r="A75">
         <f t="shared" si="2"/>
-        <v>30.631578947368418</v>
+        <v>30.901578947368417</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
@@ -2058,6 +2277,9 @@
       </c>
       <c r="D75">
         <v>73</v>
+      </c>
+      <c r="F75">
+        <v>0.1</v>
       </c>
       <c r="G75">
         <f t="shared" si="3"/>
@@ -2070,7 +2292,7 @@
     <row r="76" spans="1:8">
       <c r="A76">
         <f t="shared" si="2"/>
-        <v>30.789473684210524</v>
+        <v>31.059473684210523</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -2080,6 +2302,9 @@
       </c>
       <c r="D76">
         <v>74</v>
+      </c>
+      <c r="F76">
+        <v>0.1</v>
       </c>
       <c r="G76">
         <f t="shared" si="3"/>
@@ -2092,7 +2317,7 @@
     <row r="77" spans="1:8">
       <c r="A77">
         <f t="shared" si="2"/>
-        <v>30.94736842105263</v>
+        <v>31.21736842105263</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
@@ -2102,6 +2327,9 @@
       </c>
       <c r="D77">
         <v>75</v>
+      </c>
+      <c r="F77">
+        <v>0.1</v>
       </c>
       <c r="G77">
         <f t="shared" si="3"/>
@@ -2114,7 +2342,7 @@
     <row r="78" spans="1:8">
       <c r="A78">
         <f t="shared" si="2"/>
-        <v>31.105263157894736</v>
+        <v>31.375263157894736</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -2124,6 +2352,9 @@
       </c>
       <c r="D78">
         <v>76</v>
+      </c>
+      <c r="F78">
+        <v>0.1</v>
       </c>
       <c r="G78">
         <f t="shared" si="3"/>
@@ -2136,7 +2367,7 @@
     <row r="79" spans="1:8">
       <c r="A79">
         <f t="shared" si="2"/>
-        <v>31.263157894736839</v>
+        <v>31.533157894736839</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
@@ -2146,6 +2377,9 @@
       </c>
       <c r="D79">
         <v>77</v>
+      </c>
+      <c r="F79">
+        <v>0.1</v>
       </c>
       <c r="G79">
         <f t="shared" si="3"/>
@@ -2158,7 +2392,7 @@
     <row r="80" spans="1:8">
       <c r="A80">
         <f t="shared" si="2"/>
-        <v>32.526315789473685</v>
+        <v>32.480526315789476</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
@@ -2169,12 +2403,15 @@
       <c r="D80">
         <v>78</v>
       </c>
+      <c r="F80">
+        <v>0.1</v>
+      </c>
       <c r="G80">
         <f t="shared" si="3"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="H80" s="1">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="6:8">
